--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10.78118</v>
-      </c>
-      <c r="C2" t="n">
-        <v>89.54066</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.71006</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.05967</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.43338</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.05101</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.422739999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10.62161</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.31251</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.74982</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.29124</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.0709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>16.06062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10.25883</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.90372</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.630269999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4.08588</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6.13028</v>
-      </c>
-      <c r="T2" t="n">
-        <v>20.23878</v>
-      </c>
-      <c r="U2" t="n">
-        <v>567.1582100000001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.85428</v>
-      </c>
-      <c r="W2" t="n">
-        <v>17.88916</v>
-      </c>
-      <c r="X2" t="n">
-        <v>39.90677</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12.5368</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>17.35603</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>4.62055</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>180.90694</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>75.08828</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>23.52857</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3.77289</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1434.17</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>7.90385</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11.95091</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>33.64335</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>7.51116</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>6.50837</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>14.03328</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>109.09829</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>32.18081</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>4.23276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11.64204</v>
-      </c>
-      <c r="C3" t="n">
-        <v>95.95426999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.11095</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05529</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.87029</v>
-      </c>
-      <c r="G3" t="n">
-        <v>48.62951</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.70884</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.00997</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.61449</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.10821</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.52435</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.3733</v>
-      </c>
-      <c r="N3" t="n">
-        <v>16.57554</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9.623810000000001</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.12078</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>9.959250000000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.40793</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.76805</v>
-      </c>
-      <c r="T3" t="n">
-        <v>14.05338</v>
-      </c>
-      <c r="U3" t="n">
-        <v>645.15655</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.07798</v>
-      </c>
-      <c r="W3" t="n">
-        <v>22.34049</v>
-      </c>
-      <c r="X3" t="n">
-        <v>46.79578</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>12.27238</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19.14339</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5.59071</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>195.07011</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>72.72854</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>24.29449</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3.57889</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1553.82</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8.25079</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>14.50701</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>30.74207</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.73463</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>6.93086</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>17.52417</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>116.67062</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>33.07676</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>4.64303</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>12.58431</v>
-      </c>
-      <c r="C4" t="n">
-        <v>116.02083</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.20938</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01754</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.4285</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50.562</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.0803</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.20127</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.07849</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10.10447</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.85743</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.19539</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19.74912</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10.41083</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.82682</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>11.42534</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5.37256</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.06249</v>
-      </c>
-      <c r="T4" t="n">
-        <v>15.20492</v>
-      </c>
-      <c r="U4" t="n">
-        <v>767.321</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.32391</v>
-      </c>
-      <c r="W4" t="n">
-        <v>28.09744</v>
-      </c>
-      <c r="X4" t="n">
-        <v>50.70229</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13.8601</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>19.83079</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5.78214</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>203.90895</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>78.97265</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>26.80891</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>4.07566</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1761.61</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9.147679999999999</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15.17083</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34.51442</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.546200000000001</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7.64732</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17.99126</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>125.21794</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>37.56592</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4.90861</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
